--- a/docs/odh/odh-OccupationalHazard-model.xlsx
+++ b/docs/odh/odh-OccupationalHazard-model.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="104">
   <si>
     <t>Path</t>
   </si>
@@ -315,10 +315,19 @@
     <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
   </si>
   <si>
+    <t>odh-OccupationalHazard-model.interpretation</t>
+  </si>
+  <si>
+    <t>A clinical interpretation of a finding (applies to both assertions and observation).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+  </si>
+  <si>
     <t>odh-OccupationalHazard-model.referenceRange</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReferenceRange-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ReferenceRange-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -326,19 +335,6 @@
   </si>
   <si>
     <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0883335
-</t>
-  </si>
-  <si>
-    <t>odh-OccupationalHazard-model.interpretation</t>
-  </si>
-  <si>
-    <t>A clinical interpretation of a finding (applies to both assertions and observation).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0420833
 </t>
   </si>
 </sst>
@@ -488,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ14"/>
+  <dimension ref="A1:AI14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1733,7 +1729,7 @@
         <v>37</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>36</v>
@@ -1745,13 +1741,13 @@
         <v>36</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="K13" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="L13" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1778,16 +1774,14 @@
         <v>36</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="X13" s="2"/>
       <c r="Y13" t="s" s="2">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>36</v>
@@ -1808,7 +1802,7 @@
         <v>37</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>36</v>
@@ -1819,7 +1813,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -1830,7 +1824,7 @@
         <v>37</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>36</v>
@@ -1842,7 +1836,7 @@
         <v>36</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>102</v>
@@ -1875,15 +1869,17 @@
         <v>36</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="X14" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z14" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>104</v>
-      </c>
       <c r="AA14" t="s" s="2">
         <v>36</v>
       </c>
@@ -1897,13 +1893,13 @@
         <v>36</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>36</v>
